--- a/Tables/Sources/gameplay/BlackMarket/BlackMarketConfig.xlsx
+++ b/Tables/Sources/gameplay/BlackMarket/BlackMarketConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>商品ID</t>
   </si>
@@ -57,46 +57,112 @@
     <t>IconName</t>
   </si>
   <si>
-    <t>BlackCat *1</t>
+    <t>BlackCat1</t>
   </si>
   <si>
     <t>1001|5</t>
   </si>
   <si>
-    <t>icon_BlackCat</t>
+    <t>icon_BlackCat1</t>
+  </si>
+  <si>
+    <t>BlackCat2</t>
   </si>
   <si>
     <t>1002|6</t>
   </si>
   <si>
+    <t>icon_BlackCat2</t>
+  </si>
+  <si>
+    <t>BlackCat3</t>
+  </si>
+  <si>
     <t>1003|7</t>
   </si>
   <si>
+    <t>icon_BlackCat3</t>
+  </si>
+  <si>
+    <t>BlackCat4</t>
+  </si>
+  <si>
     <t>1004|8</t>
   </si>
   <si>
+    <t>icon_BlackCat4</t>
+  </si>
+  <si>
+    <t>BlackCat5</t>
+  </si>
+  <si>
     <t>1005|9</t>
   </si>
   <si>
+    <t>icon_BlackCat5</t>
+  </si>
+  <si>
+    <t>BlackCat6</t>
+  </si>
+  <si>
     <t>1006|10</t>
   </si>
   <si>
+    <t>icon_BlackCat6</t>
+  </si>
+  <si>
+    <t>BlackCat7</t>
+  </si>
+  <si>
     <t>1007|11</t>
   </si>
   <si>
+    <t>icon_BlackCat7</t>
+  </si>
+  <si>
+    <t>BlackCat8</t>
+  </si>
+  <si>
     <t>1008|12</t>
   </si>
   <si>
+    <t>icon_BlackCat8</t>
+  </si>
+  <si>
+    <t>BlackCat9</t>
+  </si>
+  <si>
     <t>1009|13</t>
   </si>
   <si>
+    <t>icon_BlackCat9</t>
+  </si>
+  <si>
+    <t>BlackCat10</t>
+  </si>
+  <si>
     <t>1010|14</t>
   </si>
   <si>
+    <t>icon_BlackCat10</t>
+  </si>
+  <si>
+    <t>BlackCat11</t>
+  </si>
+  <si>
     <t>1011|15</t>
   </si>
   <si>
+    <t>icon_BlackCat11</t>
+  </si>
+  <si>
+    <t>BlackCat12</t>
+  </si>
+  <si>
     <t>1012|16</t>
+  </si>
+  <si>
+    <t>icon_BlackCat12</t>
   </si>
 </sst>
 </file>
@@ -105,9 +171,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,7 +191,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,32 +273,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +299,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,84 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,13 +349,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,169 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,11 +558,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,15 +589,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,11 +649,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1169,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1217,16 +1283,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1234,16 +1300,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1251,16 +1317,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1268,16 +1334,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1285,16 +1351,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1302,16 +1368,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1319,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>128</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1336,16 +1402,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>256</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1353,16 +1419,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>300</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1370,16 +1436,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>600</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1387,16 +1453,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
         <v>648</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
